--- a/templates/TestData (1).xlsx
+++ b/templates/TestData (1).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
   <si>
     <t>AccountName</t>
   </si>
@@ -41,7 +41,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -50,6 +50,18 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -72,8 +84,11 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border/>
+    <border>
+      <bottom style="thin"/>
+    </border>
     <border>
       <bottom style="thin"/>
     </border>
@@ -81,13 +96,15 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="3" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -308,7 +325,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="6" customWidth="true" width="14.43" collapsed="false"/>
+    <col min="1" max="6" customWidth="true" width="14.43" collapsed="true"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="15.75" r="1">

--- a/templates/TestData (1).xlsx
+++ b/templates/TestData (1).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
   <si>
     <t>AccountName</t>
   </si>
@@ -41,7 +41,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -50,6 +50,18 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -84,8 +96,11 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border/>
+    <border>
+      <bottom style="thin"/>
+    </border>
     <border>
       <bottom style="thin"/>
     </border>
@@ -96,15 +111,17 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="3" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="5" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
